--- a/doors_detection_long_term/scripts/results/detr_complete_metrics_real_data_different_conditions.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_complete_metrics_real_data_different_conditions.xlsx
@@ -2071,7 +2071,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -6101,7 +6101,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -7206,7 +7206,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -8246,7 +8246,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">

--- a/doors_detection_long_term/scripts/results/detr_complete_metrics_real_data_different_conditions.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_complete_metrics_real_data_different_conditions.xlsx
@@ -536,32 +536,32 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>217</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>184</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -666,32 +666,32 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>177</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -731,32 +731,32 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>196</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -796,32 +796,32 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>130</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -861,32 +861,32 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>125</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -926,32 +926,32 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -991,22 +991,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -1056,32 +1056,32 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>165</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -1121,22 +1121,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>183</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>42</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -1186,32 +1186,32 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -1251,22 +1251,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>154</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -1316,32 +1316,32 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>72</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>156</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>367</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>79</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1446,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1511,32 +1511,32 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>333</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>36</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1576,32 +1576,32 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>19</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1641,32 +1641,32 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>217</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>52</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -1706,17 +1706,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1771,32 +1771,32 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>223</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -1836,22 +1836,22 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1901,32 +1901,32 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>291</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -1966,32 +1966,32 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>99</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>139</t>
         </is>
       </c>
     </row>
@@ -2031,32 +2031,32 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>253</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>25</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -2096,32 +2096,32 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>326</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -2161,32 +2161,32 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>219</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -2226,32 +2226,32 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>340</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -2291,32 +2291,32 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>256</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -2356,32 +2356,32 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>289</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -2421,22 +2421,22 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>308</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>44</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -2486,32 +2486,32 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>330</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -2551,32 +2551,32 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>289</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>62</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -2616,32 +2616,32 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>290</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -2681,32 +2681,32 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>284</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>71</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>117</t>
         </is>
       </c>
     </row>
@@ -2746,32 +2746,32 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>304</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -2811,32 +2811,32 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>52</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -2876,32 +2876,32 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>332</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -2941,32 +2941,32 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>306</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -3006,32 +3006,32 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>363</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -3071,32 +3071,32 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>329</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>79</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -3136,32 +3136,32 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -3201,32 +3201,32 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>206</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>62</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>170</t>
         </is>
       </c>
     </row>
@@ -3266,32 +3266,32 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>212</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -3331,32 +3331,32 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>171</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -3396,32 +3396,32 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>149</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -3461,32 +3461,32 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>229</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>65</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -3526,32 +3526,32 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>264</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>25</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -3591,32 +3591,32 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>212</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>59</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -3656,32 +3656,32 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>139</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>21</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -3721,32 +3721,32 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>198</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>46</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -3786,32 +3786,32 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>247</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -3851,32 +3851,32 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>194</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -3916,32 +3916,32 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>244</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -3981,32 +3981,32 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>235</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>42</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -4046,32 +4046,32 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>286</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -4111,32 +4111,32 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>263</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -4176,32 +4176,32 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
           <t>72</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>17</t>
         </is>
       </c>
     </row>
@@ -4241,32 +4241,32 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>286</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>32</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>129</t>
         </is>
       </c>
     </row>
@@ -4306,32 +4306,32 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>313</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -4371,22 +4371,22 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>274</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>33</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>138</t>
         </is>
       </c>
     </row>
@@ -4436,32 +4436,32 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>341</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -4501,32 +4501,32 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>279</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>42</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -4566,32 +4566,32 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>362</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -4631,32 +4631,32 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>297</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>43</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>117</t>
         </is>
       </c>
     </row>
@@ -4696,32 +4696,32 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>291</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -4761,22 +4761,22 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>299</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>27</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -4826,32 +4826,32 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
           <t>88</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
     </row>
@@ -4891,32 +4891,32 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>267</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>37</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -4956,32 +4956,32 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>309</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -5021,32 +5021,32 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>321</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>129</t>
         </is>
       </c>
     </row>
@@ -5086,32 +5086,32 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>340</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -5151,32 +5151,32 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>287</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -5216,32 +5216,32 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>214</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>57</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>22</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -5281,32 +5281,32 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>424</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>139</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -5346,32 +5346,32 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
           <t>56</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>38</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>188</t>
         </is>
       </c>
     </row>
@@ -5411,32 +5411,32 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>391</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>128</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -5476,32 +5476,32 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>249</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>114</t>
         </is>
       </c>
     </row>
@@ -5541,32 +5541,32 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>414</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -5606,32 +5606,32 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>224</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>73</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -5671,32 +5671,32 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>453</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>117</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -5736,32 +5736,32 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>233</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>62</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>187</t>
         </is>
       </c>
     </row>
@@ -5801,32 +5801,32 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>424</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>139</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -5866,32 +5866,32 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>244</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>41</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>121</t>
         </is>
       </c>
     </row>
@@ -5931,32 +5931,32 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>413</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>102</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -5996,32 +5996,32 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>244</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -6061,32 +6061,32 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>450</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>86</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -6126,32 +6126,32 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
           <t>63</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>23</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -6191,32 +6191,32 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>478</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>79</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -6256,32 +6256,32 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>94</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -6321,32 +6321,32 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>289</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -6386,32 +6386,32 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>133</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>37</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -6451,32 +6451,32 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>313</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>96</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -6516,32 +6516,32 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>89</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -6581,32 +6581,32 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
           <t>81</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -6646,32 +6646,32 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>195</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>73</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>23</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -6711,32 +6711,32 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>378</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>98</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -6776,32 +6776,32 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -6841,32 +6841,32 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>344</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>104</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -6906,32 +6906,32 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>178</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>56</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -6971,32 +6971,32 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>358</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>105</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -7036,32 +7036,32 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
           <t>95</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -7101,32 +7101,32 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>383</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>131</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -7166,32 +7166,32 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>231</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>65</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -7231,32 +7231,32 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>408</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -7296,32 +7296,32 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>226</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>138</t>
         </is>
       </c>
     </row>
@@ -7361,32 +7361,32 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>382</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>115</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -7426,32 +7426,32 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>226</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>84</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -7491,32 +7491,32 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>415</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>92</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -7556,32 +7556,32 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>221</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>63</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -7621,32 +7621,32 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>464</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>113</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -7686,32 +7686,32 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>252</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>78</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>22</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -7751,32 +7751,32 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>450</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -7816,32 +7816,32 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>231</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>65</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -7881,32 +7881,32 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>385</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>85</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -7946,32 +7946,32 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>47</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -8011,32 +8011,32 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>454</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -8076,32 +8076,32 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>262</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>73</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>26</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -8141,32 +8141,32 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>465</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>89</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -8206,32 +8206,32 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>275</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>64</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>21</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -8271,32 +8271,32 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>477</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>58</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>46</t>
         </is>
       </c>
     </row>
